--- a/apps/static/excel/template.xlsx
+++ b/apps/static/excel/template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27719"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5123F025-879D-4E70-B9DA-2F272E675E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{644205DE-7227-414B-AAC5-6872A6D43572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,19 +45,16 @@
     <t>Название</t>
   </si>
   <si>
+    <t>Короткое описание</t>
+  </si>
+  <si>
     <t>Описание</t>
   </si>
   <si>
     <t>Производитель</t>
   </si>
   <si>
-    <t>Цена за единицу</t>
-  </si>
-  <si>
-    <t>Мелкий опт</t>
-  </si>
-  <si>
-    <t>Крупный опт</t>
+    <t>Цена</t>
   </si>
   <si>
     <t>Минимальное кол-во</t>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Телефон</t>
+  </si>
+  <si>
+    <t>Ссылка на изображение</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -185,17 +185,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -219,38 +208,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -640,92 +737,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="85" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="85" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="59.25" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:13" ht="59.25" customHeight="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:13" ht="15.75">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="13"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
